--- a/raw_data/KEEN ONE/Byrnes/2014/SW Shoals Entry 2014/SW Shoals 2014 Quad Entry.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/SW Shoals Entry 2014/SW Shoals 2014 Quad Entry.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="16700" windowHeight="14740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="221">
   <si>
     <r>
       <t>Hyas coarctatus</t>
@@ -386,10 +386,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>HOAS</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>ASNO</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1276,75 +1272,71 @@
     <t>PLMA</t>
   </si>
   <si>
+    <t>Homarus americanus (lobster)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laminaria digitata juvenile &lt;20cm</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYCS</t>
+  </si>
+  <si>
+    <t>SADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Echinoids</t>
+  </si>
+  <si>
+    <t>LIES</t>
+  </si>
+  <si>
+    <t>SAJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccorhiza dermatodea juvenile &lt;10cm</t>
+  </si>
+  <si>
+    <t>CUFR</t>
+  </si>
+  <si>
+    <t>OVOS</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>ECPA</t>
+  </si>
+  <si>
+    <t>PAHE</t>
+  </si>
+  <si>
+    <t>Panopeus herbistii</t>
+  </si>
+  <si>
+    <t>SLJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharina spp. juvenile &lt;20cm</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPAC</t>
+  </si>
+  <si>
     <t>HOAS</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Homarus americanus (lobster)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laminaria digitata juvenile &lt;20cm</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>HYCS</t>
-  </si>
-  <si>
-    <t>SADE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other Echinoids</t>
-  </si>
-  <si>
-    <t>LIES</t>
-  </si>
-  <si>
-    <t>SAJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccorhiza dermatodea juvenile &lt;10cm</t>
-  </si>
-  <si>
-    <t>CUFR</t>
-  </si>
-  <si>
-    <t>OVOS</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>ECPA</t>
-  </si>
-  <si>
-    <t>PAHE</t>
-  </si>
-  <si>
-    <t>Panopeus herbistii</t>
-  </si>
-  <si>
-    <t>SLJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharina spp. juvenile &lt;20cm</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPAC</t>
-  </si>
-  <si>
-    <t>HOAS</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Lobster, &lt;10cm</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1362,22 +1354,19 @@
   </si>
   <si>
     <t>SDL</t>
+  </si>
+  <si>
+    <t>HOAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1480,7 +1469,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1490,12 +1479,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1527,12 +1510,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1632,7 +1615,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2025,15 +2008,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X912"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W40" sqref="W40"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="9.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="10" customWidth="1"/>
@@ -2051,70 +2034,70 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="O1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1">
@@ -2137,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9">
@@ -2167,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" s="12"/>
     </row>
@@ -2191,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -2297,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9">
         <v>55</v>
@@ -2359,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9">
@@ -2517,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9">
@@ -2619,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2694,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H13" s="9">
         <v>2</v>
@@ -2730,7 +2713,7 @@
         <v>52</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2803,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2853,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9">
@@ -2905,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9">
@@ -3015,7 +2998,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9">
@@ -3065,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -3121,7 +3104,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -3185,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H23" s="9">
         <v>4</v>
@@ -3219,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="W23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3298,7 +3281,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -3450,7 +3433,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -3608,7 +3591,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -3658,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3708,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9">
@@ -3760,7 +3743,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9">
@@ -3810,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9">
@@ -3862,7 +3845,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9">
@@ -3876,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P36" s="12" t="s">
         <v>17</v>
@@ -3926,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3956,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="W38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3979,7 +3962,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9">
@@ -4187,7 +4170,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="9">
         <v>1</v>
@@ -4239,7 +4222,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="9">
         <v>1</v>
@@ -4293,7 +4276,7 @@
         <v>21</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9">
@@ -4455,242 +4438,242 @@
     </row>
     <row r="865" spans="18:18">
       <c r="R865" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="866" spans="18:18">
       <c r="R866" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="867" spans="18:18">
       <c r="R867" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="868" spans="18:18">
       <c r="R868" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="869" spans="18:18">
       <c r="R869" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="870" spans="18:18">
       <c r="R870" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="871" spans="18:18">
       <c r="R871" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="872" spans="18:18">
       <c r="R872" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="873" spans="18:18">
       <c r="R873" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="874" spans="18:18">
       <c r="R874" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="875" spans="18:18">
       <c r="R875" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="876" spans="18:18">
       <c r="R876" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="877" spans="18:18">
       <c r="R877" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="878" spans="18:18">
       <c r="R878" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="879" spans="18:18">
       <c r="R879" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="880" spans="18:18">
       <c r="R880" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="881" spans="18:18">
       <c r="R881" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="882" spans="18:18">
       <c r="R882" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="883" spans="18:18">
       <c r="R883" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="884" spans="18:18">
       <c r="R884" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="885" spans="18:18">
       <c r="R885" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="886" spans="18:18">
       <c r="R886" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="887" spans="18:18">
       <c r="R887" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="888" spans="18:18">
       <c r="R888" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="889" spans="18:18">
       <c r="R889" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="890" spans="18:18">
       <c r="R890" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="891" spans="18:18">
       <c r="R891" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="892" spans="18:18">
       <c r="R892" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="893" spans="18:18">
       <c r="R893" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="894" spans="18:18">
       <c r="R894" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="895" spans="18:18">
       <c r="R895" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="896" spans="18:18">
       <c r="R896" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="897" spans="18:18">
       <c r="R897" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="898" spans="18:18">
       <c r="R898" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="899" spans="18:18">
       <c r="R899" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="900" spans="18:18">
       <c r="R900" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="901" spans="18:18">
       <c r="R901" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="902" spans="18:18">
       <c r="R902" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="903" spans="18:18">
       <c r="R903" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="904" spans="18:18">
       <c r="R904" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="905" spans="18:18">
       <c r="R905" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="906" spans="18:18">
       <c r="R906" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="907" spans="18:18">
       <c r="R907" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="908" spans="18:18">
       <c r="R908" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="909" spans="18:18">
       <c r="R909" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="910" spans="18:18">
       <c r="R910" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="911" spans="18:18">
       <c r="R911" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="912" spans="18:18">
       <c r="R912" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4722,8 +4705,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4733,7 +4716,7 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -4741,14 +4724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="25"/>
   </cols>
@@ -4761,53 +4744,53 @@
     <row r="2" spans="1:14">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="30"/>
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>172</v>
       </c>
       <c r="C6" s="30"/>
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="30"/>
       <c r="I7" s="28"/>
@@ -4815,10 +4798,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="30"/>
       <c r="I8" s="28"/>
@@ -4826,10 +4809,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="30"/>
       <c r="I9" s="28"/>
@@ -4837,10 +4820,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="35"/>
@@ -4848,10 +4831,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="35"/>
@@ -4860,39 +4843,39 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="28"/>
       <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="30"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="30"/>
       <c r="I15" s="28"/>
@@ -4900,10 +4883,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="30"/>
       <c r="I16" s="28"/>
@@ -4911,10 +4894,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="30"/>
       <c r="I17" s="28"/>
@@ -4922,10 +4905,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C18" s="30"/>
       <c r="I18" s="28"/>
@@ -4933,10 +4916,10 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="30"/>
     </row>
@@ -4946,37 +4929,37 @@
     <row r="21" spans="1:14">
       <c r="A21" s="38"/>
       <c r="B21" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="29"/>
       <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="30"/>
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="30"/>
       <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>49</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41"/>
@@ -4985,27 +4968,27 @@
     <row r="25" spans="1:14">
       <c r="A25" s="42"/>
       <c r="B25" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="28"/>
@@ -5013,76 +4996,76 @@
     <row r="29" spans="1:14">
       <c r="A29" s="42"/>
       <c r="B29" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="28"/>
     </row>
@@ -5092,83 +5075,83 @@
     <row r="38" spans="1:4">
       <c r="A38" s="42"/>
       <c r="B38" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>43</v>
       </c>
       <c r="D46" s="38"/>
     </row>
@@ -5178,134 +5161,134 @@
     </row>
     <row r="48" spans="1:4">
       <c r="B48" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="30"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="30"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="30"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="30"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="29"/>
       <c r="B60" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="29"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="29"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="29"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="29"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="28" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>0</v>
@@ -5314,7 +5297,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>1</v>
@@ -5323,7 +5306,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>2</v>
@@ -5331,18 +5314,18 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5350,12 +5333,12 @@
     </row>
     <row r="72" spans="1:4">
       <c r="B72" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" s="47" t="s">
         <v>3</v>
@@ -5364,16 +5347,16 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="C74" s="47"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="49" t="s">
         <v>4</v>
@@ -5383,17 +5366,17 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="49" t="s">
         <v>44</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>45</v>
       </c>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" s="49" t="s">
         <v>5</v>
@@ -5404,7 +5387,7 @@
     <row r="78" spans="1:4">
       <c r="A78" s="39"/>
       <c r="B78" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="40"/>
@@ -5413,7 +5396,7 @@
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
